--- a/BVNSA/OperacionesSinedi.xlsx
+++ b/BVNSA/OperacionesSinedi.xlsx
@@ -227,7 +227,7 @@
       </c>
       <c t="inlineStr" s="2" r="B2">
         <is>
-          <t>Informe de operaciones de SINEDI del 12/05/2022</t>
+          <t>Informe de operaciones de SINEDI del 12/06/2022</t>
         </is>
       </c>
     </row>
@@ -288,7 +288,7 @@
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t>28/11/2022</t>
+          <t>29/11/2022</t>
         </is>
       </c>
       <c t="n" r="C6">
@@ -313,7 +313,7 @@
     <row r="7">
       <c t="inlineStr" r="B7">
         <is>
-          <t>29/11/2022</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c t="n" r="C7">
@@ -338,7 +338,7 @@
     <row r="8">
       <c t="inlineStr" r="B8">
         <is>
-          <t>30/11/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c t="n" r="C8">
@@ -363,7 +363,7 @@
     <row r="9">
       <c t="inlineStr" r="B9">
         <is>
-          <t>01/12/2022</t>
+          <t>02/12/2022</t>
         </is>
       </c>
       <c t="n" r="C9">
@@ -388,7 +388,7 @@
     <row r="10">
       <c t="inlineStr" r="B10">
         <is>
-          <t>02/12/2022</t>
+          <t>05/12/2022</t>
         </is>
       </c>
       <c t="n" r="C10">
@@ -413,7 +413,7 @@
     <row r="11">
       <c t="inlineStr" r="B11">
         <is>
-          <t>05/12/2022</t>
+          <t>06/12/2022</t>
         </is>
       </c>
       <c t="n" r="C11">
@@ -443,7 +443,7 @@
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t>28/11/2022</t>
+          <t>29/11/2022</t>
         </is>
       </c>
       <c t="n" r="C12">
@@ -468,7 +468,7 @@
     <row r="13">
       <c t="inlineStr" r="B13">
         <is>
-          <t>29/11/2022</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c t="n" r="C13">
@@ -493,7 +493,7 @@
     <row r="14">
       <c t="inlineStr" r="B14">
         <is>
-          <t>30/11/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c t="n" r="C14">
@@ -518,7 +518,7 @@
     <row r="15">
       <c t="inlineStr" r="B15">
         <is>
-          <t>01/12/2022</t>
+          <t>02/12/2022</t>
         </is>
       </c>
       <c t="n" r="C15">
@@ -543,7 +543,7 @@
     <row r="16">
       <c t="inlineStr" r="B16">
         <is>
-          <t>02/12/2022</t>
+          <t>05/12/2022</t>
         </is>
       </c>
       <c t="n" r="C16">
@@ -568,7 +568,7 @@
     <row r="17">
       <c t="inlineStr" r="B17">
         <is>
-          <t>05/12/2022</t>
+          <t>06/12/2022</t>
         </is>
       </c>
       <c t="n" r="C17">
@@ -598,151 +598,151 @@
       </c>
       <c t="inlineStr" r="B18">
         <is>
-          <t>28/11/2022</t>
+          <t>29/11/2022</t>
         </is>
       </c>
       <c t="n" r="C18">
-        <v>7.84750</v>
+        <v>7.85250</v>
       </c>
       <c t="n" r="D18">
-        <v>7.83900</v>
+        <v>7.85000</v>
       </c>
       <c t="n" r="E18">
-        <v>7.84750</v>
+        <v>7.85250</v>
       </c>
       <c t="n" r="F18">
-        <v>7.83900</v>
+        <v>7.85000</v>
       </c>
       <c t="n" r="G18">
-        <v>7.84618</v>
+        <v>7.85000</v>
       </c>
       <c r="H18" s="63">
-        <v>16000000</v>
+        <v>24200000</v>
       </c>
     </row>
     <row r="19">
       <c t="inlineStr" r="B19">
         <is>
-          <t>29/11/2022</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c t="n" r="C19">
-        <v>7.85250</v>
+        <v>0.00000</v>
       </c>
       <c t="n" r="D19">
-        <v>7.85000</v>
+        <v>0.00000</v>
       </c>
       <c t="n" r="E19">
-        <v>7.85250</v>
+        <v>0.00000</v>
       </c>
       <c t="n" r="F19">
-        <v>7.85000</v>
+        <v>0.00000</v>
       </c>
       <c t="n" r="G19">
-        <v>7.85000</v>
-      </c>
-      <c r="H19" s="63">
-        <v>24200000</v>
+        <v>0.00000</v>
+      </c>
+      <c r="H19" s="65">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c t="inlineStr" r="B20">
         <is>
-          <t>30/11/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c t="n" r="C20">
-        <v>0.00000</v>
+        <v>7.86500</v>
       </c>
       <c t="n" r="D20">
-        <v>0.00000</v>
+        <v>7.86500</v>
       </c>
       <c t="n" r="E20">
-        <v>0.00000</v>
+        <v>7.86500</v>
       </c>
       <c t="n" r="F20">
-        <v>0.00000</v>
+        <v>7.86500</v>
       </c>
       <c t="n" r="G20">
-        <v>0.00000</v>
-      </c>
-      <c r="H20" s="65">
-        <v>0</v>
+        <v>7.86500</v>
+      </c>
+      <c r="H20" s="63">
+        <v>2500000</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="B21">
         <is>
-          <t>01/12/2022</t>
+          <t>02/12/2022</t>
         </is>
       </c>
       <c t="n" r="C21">
-        <v>7.86500</v>
+        <v>0.00000</v>
       </c>
       <c t="n" r="D21">
-        <v>7.86500</v>
+        <v>0.00000</v>
       </c>
       <c t="n" r="E21">
-        <v>7.86500</v>
+        <v>0.00000</v>
       </c>
       <c t="n" r="F21">
-        <v>7.86500</v>
+        <v>0.00000</v>
       </c>
       <c t="n" r="G21">
-        <v>7.86500</v>
-      </c>
-      <c r="H21" s="63">
-        <v>2500000</v>
+        <v>0.00000</v>
+      </c>
+      <c r="H21" s="65">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="B22">
         <is>
-          <t>02/12/2022</t>
+          <t>05/12/2022</t>
         </is>
       </c>
       <c t="n" r="C22">
-        <v>0.00000</v>
+        <v>7.94500</v>
       </c>
       <c t="n" r="D22">
-        <v>0.00000</v>
+        <v>7.94000</v>
       </c>
       <c t="n" r="E22">
-        <v>0.00000</v>
+        <v>7.94500</v>
       </c>
       <c t="n" r="F22">
-        <v>0.00000</v>
+        <v>7.94000</v>
       </c>
       <c t="n" r="G22">
-        <v>0.00000</v>
-      </c>
-      <c r="H22" s="65">
-        <v>0</v>
+        <v>7.94362</v>
+      </c>
+      <c r="H22" s="63">
+        <v>3800000</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="B23">
         <is>
-          <t>05/12/2022</t>
+          <t>06/12/2022</t>
         </is>
       </c>
       <c t="n" r="C23">
-        <v>7.94500</v>
+        <v>7.98000</v>
       </c>
       <c t="n" r="D23">
-        <v>7.94000</v>
+        <v>7.97750</v>
       </c>
       <c t="n" r="E23">
-        <v>7.94500</v>
+        <v>7.98000</v>
       </c>
       <c t="n" r="F23">
-        <v>7.94000</v>
+        <v>7.97750</v>
       </c>
       <c t="n" r="G23">
-        <v>7.94362</v>
+        <v>7.97958</v>
       </c>
       <c r="H23" s="63">
-        <v>3800000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="24">
@@ -753,7 +753,7 @@
       </c>
       <c t="inlineStr" r="B24">
         <is>
-          <t>28/11/2022</t>
+          <t>29/11/2022</t>
         </is>
       </c>
       <c t="n" r="C24">
@@ -778,7 +778,7 @@
     <row r="25">
       <c t="inlineStr" r="B25">
         <is>
-          <t>29/11/2022</t>
+          <t>30/11/2022</t>
         </is>
       </c>
       <c t="n" r="C25">
@@ -803,7 +803,7 @@
     <row r="26">
       <c t="inlineStr" r="B26">
         <is>
-          <t>30/11/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c t="n" r="C26">
@@ -828,7 +828,7 @@
     <row r="27">
       <c t="inlineStr" r="B27">
         <is>
-          <t>01/12/2022</t>
+          <t>02/12/2022</t>
         </is>
       </c>
       <c t="n" r="C27">
@@ -853,7 +853,7 @@
     <row r="28">
       <c t="inlineStr" r="B28">
         <is>
-          <t>02/12/2022</t>
+          <t>05/12/2022</t>
         </is>
       </c>
       <c t="n" r="C28">
@@ -878,7 +878,7 @@
     <row r="29">
       <c t="inlineStr" r="B29">
         <is>
-          <t>05/12/2022</t>
+          <t>06/12/2022</t>
         </is>
       </c>
       <c t="n" r="C29">
